--- a/trunk/docs/pxc-seguiment.xlsx
+++ b/trunk/docs/pxc-seguiment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>Héctor</t>
   </si>
@@ -139,6 +139,15 @@
   </si>
   <si>
     <t>Servei Cerca</t>
+  </si>
+  <si>
+    <t>Març</t>
+  </si>
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>Maig</t>
   </si>
 </sst>
 </file>
@@ -146,9 +155,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-C0A]d\-mmm;@"/>
+    <numFmt numFmtId="168" formatCode="dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,8 +181,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,8 +201,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -195,13 +222,80 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -223,6 +317,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -242,8 +374,8 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -255,7 +387,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2514600" y="5829300"/>
-          <a:ext cx="142875" cy="342900"/>
+          <a:ext cx="133350" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="leftBrace">
           <a:avLst/>
@@ -310,16 +442,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -328,11 +460,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6877050" y="5829300"/>
-          <a:ext cx="142875" cy="342900"/>
+          <a:off x="3200400" y="5834063"/>
+          <a:ext cx="180975" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="leftBrace">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 47222"/>
+          </a:avLst>
         </a:prstGeom>
         <a:noFill/>
         <a:ln w="28575"/>
@@ -384,14 +519,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -401,9 +536,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5057775" y="3810000"/>
-          <a:ext cx="142875" cy="342900"/>
+        <a:xfrm flipH="1">
+          <a:off x="3695699" y="3810000"/>
+          <a:ext cx="180975" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="leftBrace">
           <a:avLst/>
@@ -744,387 +879,467 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:AR59"/>
+  <dimension ref="A2:AJ59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
+    <col min="2" max="19" width="2.7109375" customWidth="1"/>
+    <col min="20" max="20" width="2.7109375" style="17" customWidth="1"/>
+    <col min="21" max="33" width="2.7109375" customWidth="1"/>
+    <col min="34" max="34" width="2.7109375" style="17" customWidth="1"/>
+    <col min="35" max="36" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:44">
-      <c r="B3" s="1">
+    <row r="2" spans="1:36">
+      <c r="B2" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
+    </row>
+    <row r="3" spans="1:36" s="20" customFormat="1">
+      <c r="B3" s="28">
         <v>40260</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="24">
         <v>40261</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="25">
         <v>40262</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="24">
         <v>40263</v>
       </c>
-      <c r="G3" s="1">
+      <c r="F3" s="24">
         <v>40267</v>
       </c>
-      <c r="H3" s="1">
+      <c r="G3" s="24">
         <v>40268</v>
       </c>
-      <c r="I3" s="1">
+      <c r="H3" s="25">
         <v>40269</v>
       </c>
-      <c r="J3" s="1">
+      <c r="I3" s="24">
         <v>40270</v>
       </c>
-      <c r="L3" s="1">
+      <c r="J3" s="24">
         <v>40274</v>
       </c>
-      <c r="M3" s="1">
+      <c r="K3" s="24">
         <v>40275</v>
       </c>
-      <c r="N3" s="1">
+      <c r="L3" s="25">
         <v>40276</v>
       </c>
-      <c r="O3" s="1">
+      <c r="M3" s="24">
         <v>40277</v>
       </c>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1">
+      <c r="N3" s="24">
         <v>40281</v>
       </c>
-      <c r="R3" s="1">
+      <c r="O3" s="24">
         <v>40282</v>
       </c>
-      <c r="S3" s="1">
+      <c r="P3" s="25">
         <v>40283</v>
       </c>
-      <c r="T3" s="1">
+      <c r="Q3" s="24">
         <v>40284</v>
       </c>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1">
+      <c r="R3" s="24">
         <v>40288</v>
       </c>
-      <c r="W3" s="1">
+      <c r="S3" s="24">
         <v>40289</v>
       </c>
-      <c r="X3" s="1">
+      <c r="T3" s="26">
         <v>40290</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="U3" s="24">
         <v>40291</v>
       </c>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1">
+      <c r="V3" s="24">
         <v>40295</v>
       </c>
-      <c r="AB3" s="1">
+      <c r="W3" s="24">
         <v>40296</v>
       </c>
-      <c r="AC3" s="1">
+      <c r="X3" s="25">
         <v>40297</v>
       </c>
-      <c r="AD3" s="1">
+      <c r="Y3" s="24">
         <v>40298</v>
       </c>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1">
+      <c r="Z3" s="24">
         <v>40302</v>
       </c>
-      <c r="AG3" s="1">
+      <c r="AA3" s="24">
         <v>40303</v>
       </c>
-      <c r="AH3" s="1">
+      <c r="AB3" s="25">
         <v>40304</v>
       </c>
-      <c r="AI3" s="1">
+      <c r="AC3" s="24">
         <v>40305</v>
       </c>
-      <c r="AJ3" s="1"/>
-      <c r="AK3" s="1">
+      <c r="AD3" s="24">
         <v>40309</v>
       </c>
-      <c r="AL3" s="1">
+      <c r="AE3" s="24">
         <v>40310</v>
       </c>
-      <c r="AM3" s="1">
+      <c r="AF3" s="25">
         <v>40311</v>
       </c>
-      <c r="AN3" s="1">
+      <c r="AG3" s="24">
         <v>40312</v>
       </c>
-      <c r="AO3" s="1"/>
-      <c r="AP3" s="1">
+      <c r="AH3" s="27">
         <v>40316</v>
       </c>
-      <c r="AQ3" s="1">
+      <c r="AI3" s="24">
         <v>40317</v>
       </c>
-      <c r="AR3" s="1">
+      <c r="AJ3" s="25">
         <v>40318</v>
       </c>
     </row>
-    <row r="4" spans="1:44">
+    <row r="4" spans="1:36">
       <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:44">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:36">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:44">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:36">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8"/>
-    </row>
-    <row r="7" spans="1:44">
-      <c r="A7" s="2" t="s">
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="1:36">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="8"/>
-    </row>
-    <row r="8" spans="1:44">
-      <c r="A8" s="3" t="s">
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="1:36">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:44">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:36">
+      <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="8"/>
-    </row>
-    <row r="10" spans="1:44">
-      <c r="A10" s="2" t="s">
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:36">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:44">
-      <c r="A11" s="3" t="s">
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:36">
+      <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:44">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:36">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:44">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:36">
+      <c r="A13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:44">
-      <c r="A14" s="6" t="s">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:36">
+      <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="1:44">
-      <c r="A15" s="2" t="s">
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:36">
+      <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:44">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:36">
+      <c r="A16" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:19">
+      <c r="A17" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:19">
+      <c r="A18" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:19">
+      <c r="A19" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:19">
+      <c r="A20" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:19">
+      <c r="A21" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:19">
+      <c r="A22" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:19">
+      <c r="A23" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="7"/>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="6"/>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:19">
+      <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:19">
+      <c r="A30" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="3" t="s">
+      <c r="S30" s="29"/>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:19">
+      <c r="A32" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="G32" s="10"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="2" t="s">
+      <c r="B32" s="8"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="1:32">
+      <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="6" t="s">
+    <row r="34" spans="1:32">
+      <c r="A34" s="13" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="6" t="s">
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+    </row>
+    <row r="35" spans="1:32">
+      <c r="A35" s="14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="2" t="s">
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+    </row>
+    <row r="36" spans="1:32">
+      <c r="A36" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="2" t="s">
+    <row r="37" spans="1:32">
+      <c r="A37" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="6" t="s">
+    <row r="38" spans="1:32">
+      <c r="A38" s="16" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="6" t="s">
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+    </row>
+    <row r="39" spans="1:32">
+      <c r="A39" s="13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="6" t="s">
+      <c r="K39" s="7"/>
+    </row>
+    <row r="40" spans="1:32">
+      <c r="A40" s="14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="6" t="s">
+      <c r="L40" s="7"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="18"/>
+    </row>
+    <row r="41" spans="1:32">
+      <c r="A41" s="14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="6" t="s">
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+    </row>
+    <row r="42" spans="1:32">
+      <c r="A42" s="14" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="2" t="s">
+      <c r="V42" s="11"/>
+      <c r="W42" s="11"/>
+      <c r="X42" s="11"/>
+    </row>
+    <row r="43" spans="1:32">
+      <c r="A43" s="15" t="s">
         <v>19</v>
       </c>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="11"/>
+      <c r="AA43" s="11"/>
+      <c r="AB43" s="11"/>
+      <c r="AC43" s="11"/>
+      <c r="AD43" s="11"/>
+      <c r="AE43" s="11"/>
+      <c r="AF43" s="11"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="6"/>
+      <c r="A58" s="5"/>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="1" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:Y2"/>
+    <mergeCell ref="Z2:AJ2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
